--- a/uploads/scholarship.xlsx
+++ b/uploads/scholarship.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Six square\Downloads\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F7CFBEE6-5944-45D0-A999-2A53F5D81601}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{051D9442-E14D-46DC-8AEC-9DC4CCB2D63C}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="6" uniqueCount="5">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="6" uniqueCount="6">
   <si>
     <t>學號</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -43,7 +43,11 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>test</t>
+    <t>領取金額</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>s10350136</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -51,9 +55,6 @@
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <numFmts count="1">
-    <numFmt numFmtId="177" formatCode="yyyy\-mm\-dd;@"/>
-  </numFmts>
   <fonts count="2" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
@@ -92,7 +93,7 @@
   </cellStyleXfs>
   <cellXfs count="2">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="177" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="14" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="一般" xfId="0" builtinId="0"/>
@@ -373,20 +374,19 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:D2"/>
+  <dimension ref="A1:E2"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C2" sqref="C2"/>
+      <selection activeCell="A3" sqref="A3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="2" max="2" width="15.125" customWidth="1"/>
-    <col min="3" max="3" width="17.25" customWidth="1"/>
-    <col min="4" max="4" width="35.375" customWidth="1"/>
+    <col min="3" max="3" width="19.375" customWidth="1"/>
+    <col min="4" max="4" width="11.75" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A1" t="s">
         <v>0</v>
       </c>
@@ -397,21 +397,24 @@
         <v>2</v>
       </c>
       <c r="D1" t="s">
+        <v>4</v>
+      </c>
+      <c r="E1" t="s">
         <v>3</v>
       </c>
     </row>
-    <row r="2" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A2" t="s">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="B2">
         <v>3</v>
       </c>
       <c r="C2" s="1">
-        <v>45739</v>
-      </c>
-      <c r="D2" t="s">
-        <v>4</v>
+        <v>45673</v>
+      </c>
+      <c r="D2">
+        <v>1000</v>
       </c>
     </row>
   </sheetData>

--- a/uploads/scholarship.xlsx
+++ b/uploads/scholarship.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Six square\Downloads\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{051D9442-E14D-46DC-8AEC-9DC4CCB2D63C}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{BC6E1DFF-766F-476A-A738-D77ADCBDCDAF}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="6" uniqueCount="6">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="7" uniqueCount="7">
   <si>
     <t>學號</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -35,10 +35,6 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>領取日期</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>備註</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
@@ -47,8 +43,15 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>s10350136</t>
-    <phoneticPr fontId="1" type="noConversion"/>
+    <t>領取日期(YYYY-MM-DD)</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>s10350121</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>s10350122</t>
   </si>
 </sst>
 </file>
@@ -374,14 +377,16 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:E2"/>
+  <dimension ref="A1:E4"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="A3" sqref="A3"/>
+      <selection activeCell="F9" sqref="F9"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.3"/>
   <cols>
+    <col min="1" max="1" width="13.125" customWidth="1"/>
+    <col min="2" max="2" width="12.625" customWidth="1"/>
     <col min="3" max="3" width="19.375" customWidth="1"/>
     <col min="4" max="4" width="11.75" customWidth="1"/>
   </cols>
@@ -394,13 +399,13 @@
         <v>1</v>
       </c>
       <c r="C1" t="s">
+        <v>4</v>
+      </c>
+      <c r="D1" t="s">
+        <v>3</v>
+      </c>
+      <c r="E1" t="s">
         <v>2</v>
-      </c>
-      <c r="D1" t="s">
-        <v>4</v>
-      </c>
-      <c r="E1" t="s">
-        <v>3</v>
       </c>
     </row>
     <row r="2" spans="1:5" x14ac:dyDescent="0.3">
@@ -411,11 +416,28 @@
         <v>3</v>
       </c>
       <c r="C2" s="1">
-        <v>45673</v>
+        <v>45536</v>
       </c>
       <c r="D2">
         <v>1000</v>
       </c>
+    </row>
+    <row r="3" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A3" t="s">
+        <v>6</v>
+      </c>
+      <c r="B3">
+        <v>3</v>
+      </c>
+      <c r="C3" s="1">
+        <v>45169</v>
+      </c>
+      <c r="D3">
+        <v>2000</v>
+      </c>
+    </row>
+    <row r="4" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="C4" s="1"/>
     </row>
   </sheetData>
   <phoneticPr fontId="1" type="noConversion"/>

--- a/uploads/scholarship.xlsx
+++ b/uploads/scholarship.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Six square\Downloads\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{BC6E1DFF-766F-476A-A738-D77ADCBDCDAF}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{CC709F4B-FFB2-417C-8C5F-632625ED8F63}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="7" uniqueCount="7">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="9" uniqueCount="9">
   <si>
     <t>學號</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -47,11 +47,17 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>s10350121</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>s10350122</t>
+    <t>s10350134</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>s10350135</t>
+  </si>
+  <si>
+    <t>s10350136</t>
+  </si>
+  <si>
+    <t>s10350137</t>
   </si>
 </sst>
 </file>
@@ -377,16 +383,15 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:E4"/>
+  <dimension ref="A1:E5"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="F9" sqref="F9"/>
+      <selection activeCell="D2" sqref="D2:D5"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="13.125" customWidth="1"/>
-    <col min="2" max="2" width="12.625" customWidth="1"/>
+    <col min="1" max="1" width="15.5" customWidth="1"/>
     <col min="3" max="3" width="19.375" customWidth="1"/>
     <col min="4" max="4" width="11.75" customWidth="1"/>
   </cols>
@@ -416,7 +421,7 @@
         <v>3</v>
       </c>
       <c r="C2" s="1">
-        <v>45536</v>
+        <v>45831</v>
       </c>
       <c r="D2">
         <v>1000</v>
@@ -430,14 +435,39 @@
         <v>3</v>
       </c>
       <c r="C3" s="1">
-        <v>45169</v>
+        <v>45466</v>
       </c>
       <c r="D3">
-        <v>2000</v>
+        <v>1000</v>
       </c>
     </row>
     <row r="4" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="C4" s="1"/>
+      <c r="A4" t="s">
+        <v>7</v>
+      </c>
+      <c r="B4">
+        <v>3</v>
+      </c>
+      <c r="C4" s="1">
+        <v>45100</v>
+      </c>
+      <c r="D4">
+        <v>1000</v>
+      </c>
+    </row>
+    <row r="5" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A5" t="s">
+        <v>8</v>
+      </c>
+      <c r="B5">
+        <v>3</v>
+      </c>
+      <c r="C5" s="1">
+        <v>44735</v>
+      </c>
+      <c r="D5">
+        <v>1000</v>
+      </c>
     </row>
   </sheetData>
   <phoneticPr fontId="1" type="noConversion"/>

--- a/uploads/scholarship.xlsx
+++ b/uploads/scholarship.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Six square\Downloads\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{CC709F4B-FFB2-417C-8C5F-632625ED8F63}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A853E0AB-149F-48B8-8B35-0B3284657B34}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="9" uniqueCount="9">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="6" uniqueCount="6">
   <si>
     <t>學號</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -47,24 +47,14 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>s10350134</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>s10350135</t>
-  </si>
-  <si>
-    <t>s10350136</t>
-  </si>
-  <si>
-    <t>s10350137</t>
+    <t>S11350150</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="2" x14ac:knownFonts="1">
+  <fonts count="3" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -79,16 +69,28 @@
       <charset val="136"/>
       <scheme val="minor"/>
     </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF000000"/>
+      <name val="Arial"/>
+      <family val="2"/>
+    </font>
   </fonts>
-  <fills count="2">
+  <fills count="3">
     <fill>
       <patternFill patternType="none"/>
     </fill>
     <fill>
       <patternFill patternType="gray125"/>
     </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFEDEEF2"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
   </fills>
-  <borders count="1">
+  <borders count="3">
     <border>
       <left/>
       <right/>
@@ -96,13 +98,49 @@
       <bottom/>
       <diagonal/>
     </border>
+    <border>
+      <left style="medium">
+        <color rgb="FF8C8C8C"/>
+      </left>
+      <right style="medium">
+        <color rgb="FFA0A0A0"/>
+      </right>
+      <top style="medium">
+        <color rgb="FF8C8C8C"/>
+      </top>
+      <bottom style="medium">
+        <color rgb="FF8C8C8C"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="medium">
+        <color rgb="FFA0A0A0"/>
+      </left>
+      <right style="medium">
+        <color rgb="FF8C8C8C"/>
+      </right>
+      <top style="medium">
+        <color rgb="FF8C8C8C"/>
+      </top>
+      <bottom style="medium">
+        <color rgb="FF8C8C8C"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="2">
+  <cellXfs count="4">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="14" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="一般" xfId="0" builtinId="0"/>
@@ -383,20 +421,20 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:E5"/>
+  <dimension ref="A1:E2"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="D2" sqref="D2:D5"/>
+      <selection activeCell="F6" sqref="F6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="15.5" customWidth="1"/>
+    <col min="1" max="1" width="27.75" customWidth="1"/>
     <col min="3" max="3" width="19.375" customWidth="1"/>
     <col min="4" max="4" width="11.75" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:5" ht="15.6" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A1" t="s">
         <v>0</v>
       </c>
@@ -413,60 +451,18 @@
         <v>2</v>
       </c>
     </row>
-    <row r="2" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A2" t="s">
+    <row r="2" spans="1:5" ht="15.6" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A2" s="2" t="s">
         <v>5</v>
       </c>
-      <c r="B2">
-        <v>3</v>
+      <c r="B2" s="3">
+        <v>5</v>
       </c>
       <c r="C2" s="1">
-        <v>45831</v>
+        <v>45782</v>
       </c>
       <c r="D2">
-        <v>1000</v>
-      </c>
-    </row>
-    <row r="3" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A3" t="s">
-        <v>6</v>
-      </c>
-      <c r="B3">
-        <v>3</v>
-      </c>
-      <c r="C3" s="1">
-        <v>45466</v>
-      </c>
-      <c r="D3">
-        <v>1000</v>
-      </c>
-    </row>
-    <row r="4" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A4" t="s">
-        <v>7</v>
-      </c>
-      <c r="B4">
-        <v>3</v>
-      </c>
-      <c r="C4" s="1">
-        <v>45100</v>
-      </c>
-      <c r="D4">
-        <v>1000</v>
-      </c>
-    </row>
-    <row r="5" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A5" t="s">
-        <v>8</v>
-      </c>
-      <c r="B5">
-        <v>3</v>
-      </c>
-      <c r="C5" s="1">
-        <v>44735</v>
-      </c>
-      <c r="D5">
-        <v>1000</v>
+        <v>3000</v>
       </c>
     </row>
   </sheetData>

--- a/uploads/scholarship.xlsx
+++ b/uploads/scholarship.xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="28526"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="28623"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Six square\Downloads\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A853E0AB-149F-48B8-8B35-0B3284657B34}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{828FE3A6-CC03-45CA-B645-125BEB283D4B}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="6" uniqueCount="6">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="9" uniqueCount="7">
   <si>
     <t>學號</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -47,14 +47,19 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>S11350150</t>
+    <t>test</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>test1</t>
+    <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="3" x14ac:knownFonts="1">
+  <fonts count="2" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -69,28 +74,16 @@
       <charset val="136"/>
       <scheme val="minor"/>
     </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF000000"/>
-      <name val="Arial"/>
-      <family val="2"/>
-    </font>
   </fonts>
-  <fills count="3">
+  <fills count="2">
     <fill>
       <patternFill patternType="none"/>
     </fill>
     <fill>
       <patternFill patternType="gray125"/>
     </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFEDEEF2"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
   </fills>
-  <borders count="3">
+  <borders count="1">
     <border>
       <left/>
       <right/>
@@ -98,49 +91,13 @@
       <bottom/>
       <diagonal/>
     </border>
-    <border>
-      <left style="medium">
-        <color rgb="FF8C8C8C"/>
-      </left>
-      <right style="medium">
-        <color rgb="FFA0A0A0"/>
-      </right>
-      <top style="medium">
-        <color rgb="FF8C8C8C"/>
-      </top>
-      <bottom style="medium">
-        <color rgb="FF8C8C8C"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="medium">
-        <color rgb="FFA0A0A0"/>
-      </left>
-      <right style="medium">
-        <color rgb="FF8C8C8C"/>
-      </right>
-      <top style="medium">
-        <color rgb="FF8C8C8C"/>
-      </top>
-      <bottom style="medium">
-        <color rgb="FF8C8C8C"/>
-      </bottom>
-      <diagonal/>
-    </border>
   </borders>
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="4">
+  <cellXfs count="2">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="14" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="一般" xfId="0" builtinId="0"/>
@@ -421,20 +378,19 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:E2"/>
+  <dimension ref="A1:E3"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="F6" sqref="F6"/>
+      <selection activeCell="H3" sqref="H3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="27.75" customWidth="1"/>
     <col min="3" max="3" width="19.375" customWidth="1"/>
     <col min="4" max="4" width="11.75" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:5" ht="15.6" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="1" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A1" t="s">
         <v>0</v>
       </c>
@@ -451,18 +407,38 @@
         <v>2</v>
       </c>
     </row>
-    <row r="2" spans="1:5" ht="15.6" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A2" s="2" t="s">
+    <row r="2" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A2" t="s">
         <v>5</v>
       </c>
-      <c r="B2" s="3">
-        <v>5</v>
+      <c r="B2">
+        <v>3</v>
       </c>
       <c r="C2" s="1">
-        <v>45782</v>
+        <v>45776</v>
       </c>
       <c r="D2">
         <v>3000</v>
+      </c>
+      <c r="E2" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="3" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A3" t="s">
+        <v>6</v>
+      </c>
+      <c r="B3">
+        <v>5</v>
+      </c>
+      <c r="C3" s="1">
+        <v>45776</v>
+      </c>
+      <c r="D3">
+        <v>5000</v>
+      </c>
+      <c r="E3" t="s">
+        <v>5</v>
       </c>
     </row>
   </sheetData>

--- a/uploads/scholarship.xlsx
+++ b/uploads/scholarship.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Six square\Downloads\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{828FE3A6-CC03-45CA-B645-125BEB283D4B}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{87679237-6A94-4E0E-AC61-FEDC00C4E641}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="9" uniqueCount="7">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="6" uniqueCount="6">
   <si>
     <t>學號</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -48,10 +48,6 @@
   </si>
   <si>
     <t>test</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>test1</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -378,16 +374,18 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:E3"/>
+  <dimension ref="A1:E2"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="H3" sqref="H3"/>
+      <selection activeCell="D2" sqref="D2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="3" max="3" width="19.375" customWidth="1"/>
-    <col min="4" max="4" width="11.75" customWidth="1"/>
+    <col min="1" max="1" width="10.5" customWidth="1"/>
+    <col min="2" max="2" width="15" customWidth="1"/>
+    <col min="3" max="3" width="29.75" customWidth="1"/>
+    <col min="4" max="4" width="17.5" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:5" x14ac:dyDescent="0.3">
@@ -415,30 +413,10 @@
         <v>3</v>
       </c>
       <c r="C2" s="1">
-        <v>45776</v>
+        <v>45777</v>
       </c>
       <c r="D2">
         <v>3000</v>
-      </c>
-      <c r="E2" t="s">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="3" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A3" t="s">
-        <v>6</v>
-      </c>
-      <c r="B3">
-        <v>5</v>
-      </c>
-      <c r="C3" s="1">
-        <v>45776</v>
-      </c>
-      <c r="D3">
-        <v>5000</v>
-      </c>
-      <c r="E3" t="s">
-        <v>5</v>
       </c>
     </row>
   </sheetData>

--- a/uploads/scholarship.xlsx
+++ b/uploads/scholarship.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="28623"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="28730"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Six square\Downloads\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Six square\Desktop\網管\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{87679237-6A94-4E0E-AC61-FEDC00C4E641}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A723A3F3-F955-407B-8561-F7A1D2CAEA13}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-19310" yWindow="-110" windowWidth="19420" windowHeight="10420" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="工作表1" sheetId="1" r:id="rId1"/>
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="6" uniqueCount="6">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="99" uniqueCount="53">
   <si>
     <t>學號</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -47,15 +47,156 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>test</t>
+    <t>系統建立初創建</t>
     <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>S10350247</t>
+  </si>
+  <si>
+    <t>S10350326</t>
+  </si>
+  <si>
+    <t>S11350316</t>
+  </si>
+  <si>
+    <t>S09350213</t>
+  </si>
+  <si>
+    <t>S10350114</t>
+  </si>
+  <si>
+    <t>S10350134</t>
+  </si>
+  <si>
+    <t>S11350122</t>
+  </si>
+  <si>
+    <t>S11350150</t>
+  </si>
+  <si>
+    <t>S11350305</t>
+  </si>
+  <si>
+    <t>S11350320</t>
+  </si>
+  <si>
+    <t>S11350323</t>
+  </si>
+  <si>
+    <t>S07351032</t>
+  </si>
+  <si>
+    <t>S08353029</t>
+  </si>
+  <si>
+    <t>S08353032</t>
+  </si>
+  <si>
+    <t>S08353038</t>
+  </si>
+  <si>
+    <t>S09350246</t>
+  </si>
+  <si>
+    <t>S09350251</t>
+  </si>
+  <si>
+    <t>S10350136</t>
+  </si>
+  <si>
+    <t>S10350227</t>
+  </si>
+  <si>
+    <t>S10350324</t>
+  </si>
+  <si>
+    <t>S10350330</t>
+  </si>
+  <si>
+    <t>S10680022</t>
+  </si>
+  <si>
+    <t>S11350310</t>
+  </si>
+  <si>
+    <t>S11350319</t>
+  </si>
+  <si>
+    <t>S11350329</t>
+  </si>
+  <si>
+    <t>S08352004</t>
+  </si>
+  <si>
+    <t>S09350116</t>
+  </si>
+  <si>
+    <t>S09350248</t>
+  </si>
+  <si>
+    <t>S09350344</t>
+  </si>
+  <si>
+    <t>S09350705</t>
+  </si>
+  <si>
+    <t>S11350334</t>
+  </si>
+  <si>
+    <t>S06310146</t>
+  </si>
+  <si>
+    <t>S08351034</t>
+  </si>
+  <si>
+    <t>S08351041</t>
+  </si>
+  <si>
+    <t>S08352002</t>
+  </si>
+  <si>
+    <t>S08352602</t>
+  </si>
+  <si>
+    <t>S08353001</t>
+  </si>
+  <si>
+    <t>S08353009</t>
+  </si>
+  <si>
+    <t>S08353012</t>
+  </si>
+  <si>
+    <t>S08490010</t>
+  </si>
+  <si>
+    <t>S09350238</t>
+  </si>
+  <si>
+    <t>S09350332</t>
+  </si>
+  <si>
+    <t>S09350349</t>
+  </si>
+  <si>
+    <t>S09350704</t>
+  </si>
+  <si>
+    <t>S10350313</t>
+  </si>
+  <si>
+    <t>S10350316</t>
+  </si>
+  <si>
+    <t>S10350328</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="2" x14ac:knownFonts="1">
+  <fonts count="3" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -70,19 +211,58 @@
       <charset val="136"/>
       <scheme val="minor"/>
     </font>
+    <font>
+      <sz val="12"/>
+      <color theme="1"/>
+      <name val="新細明體"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
   </fonts>
-  <fills count="2">
+  <fills count="3">
     <fill>
       <patternFill patternType="none"/>
     </fill>
     <fill>
       <patternFill patternType="gray125"/>
     </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFF00"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
   </fills>
-  <borders count="1">
+  <borders count="3">
     <border>
       <left/>
       <right/>
+      <top/>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
       <top/>
       <bottom/>
       <diagonal/>
@@ -91,9 +271,18 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="2">
+  <cellXfs count="5">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="14" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="一般" xfId="0" builtinId="0"/>
@@ -374,18 +563,18 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:E2"/>
+  <dimension ref="A1:E61"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="D2" sqref="D2"/>
+    <sheetView tabSelected="1" topLeftCell="A32" workbookViewId="0">
+      <selection activeCell="H39" sqref="H39"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="10.5" customWidth="1"/>
-    <col min="2" max="2" width="15" customWidth="1"/>
-    <col min="3" max="3" width="29.75" customWidth="1"/>
-    <col min="4" max="4" width="17.5" customWidth="1"/>
+    <col min="1" max="1" width="12.25" customWidth="1"/>
+    <col min="3" max="3" width="19.375" customWidth="1"/>
+    <col min="4" max="4" width="11.75" customWidth="1"/>
+    <col min="5" max="5" width="19.5" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:5" x14ac:dyDescent="0.3">
@@ -405,19 +594,843 @@
         <v>2</v>
       </c>
     </row>
-    <row r="2" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A2" t="s">
-        <v>5</v>
-      </c>
-      <c r="B2">
-        <v>3</v>
+    <row r="2" spans="1:5" ht="16.2" x14ac:dyDescent="0.3">
+      <c r="A2" s="3" t="s">
+        <v>6</v>
+      </c>
+      <c r="B2" s="2">
+        <v>4</v>
       </c>
       <c r="C2" s="1">
-        <v>45777</v>
+        <v>45436</v>
       </c>
       <c r="D2">
-        <v>3000</v>
-      </c>
+        <v>1000</v>
+      </c>
+      <c r="E2" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="3" spans="1:5" ht="16.2" x14ac:dyDescent="0.3">
+      <c r="A3" s="3" t="s">
+        <v>7</v>
+      </c>
+      <c r="B3" s="2">
+        <v>4</v>
+      </c>
+      <c r="C3" s="1">
+        <v>45436</v>
+      </c>
+      <c r="D3">
+        <v>1000</v>
+      </c>
+      <c r="E3" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="4" spans="1:5" ht="16.2" x14ac:dyDescent="0.3">
+      <c r="A4" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="B4" s="2">
+        <v>4</v>
+      </c>
+      <c r="C4" s="1">
+        <v>45436</v>
+      </c>
+      <c r="D4">
+        <v>1000</v>
+      </c>
+      <c r="E4" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="5" spans="1:5" ht="16.2" x14ac:dyDescent="0.3">
+      <c r="A5" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="B5" s="2">
+        <v>3</v>
+      </c>
+      <c r="C5" s="1">
+        <v>45436</v>
+      </c>
+      <c r="D5">
+        <v>1000</v>
+      </c>
+      <c r="E5" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="6" spans="1:5" ht="16.2" x14ac:dyDescent="0.3">
+      <c r="A6" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="B6" s="2">
+        <v>3</v>
+      </c>
+      <c r="C6" s="1">
+        <v>45436</v>
+      </c>
+      <c r="D6">
+        <v>1000</v>
+      </c>
+      <c r="E6" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="7" spans="1:5" ht="16.2" x14ac:dyDescent="0.3">
+      <c r="A7" s="2" t="s">
+        <v>11</v>
+      </c>
+      <c r="B7" s="2">
+        <v>3</v>
+      </c>
+      <c r="C7" s="1">
+        <v>45436</v>
+      </c>
+      <c r="D7">
+        <v>1000</v>
+      </c>
+      <c r="E7" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="8" spans="1:5" ht="16.2" x14ac:dyDescent="0.3">
+      <c r="A8" s="2" t="s">
+        <v>12</v>
+      </c>
+      <c r="B8" s="2">
+        <v>3</v>
+      </c>
+      <c r="C8" s="1">
+        <v>45436</v>
+      </c>
+      <c r="D8">
+        <v>1000</v>
+      </c>
+      <c r="E8" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="9" spans="1:5" ht="16.2" x14ac:dyDescent="0.3">
+      <c r="A9" s="2" t="s">
+        <v>13</v>
+      </c>
+      <c r="B9" s="2">
+        <v>5</v>
+      </c>
+      <c r="C9" s="1">
+        <v>45436</v>
+      </c>
+      <c r="D9">
+        <v>1000</v>
+      </c>
+      <c r="E9" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="10" spans="1:5" ht="16.2" x14ac:dyDescent="0.3">
+      <c r="A10" s="2" t="s">
+        <v>14</v>
+      </c>
+      <c r="B10" s="2">
+        <v>4</v>
+      </c>
+      <c r="C10" s="1">
+        <v>45436</v>
+      </c>
+      <c r="D10">
+        <v>1000</v>
+      </c>
+      <c r="E10" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="11" spans="1:5" ht="16.2" x14ac:dyDescent="0.3">
+      <c r="A11" s="2" t="s">
+        <v>15</v>
+      </c>
+      <c r="B11" s="2">
+        <v>3</v>
+      </c>
+      <c r="C11" s="1">
+        <v>45436</v>
+      </c>
+      <c r="D11">
+        <v>1000</v>
+      </c>
+      <c r="E11" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="12" spans="1:5" ht="16.2" x14ac:dyDescent="0.3">
+      <c r="A12" s="2" t="s">
+        <v>16</v>
+      </c>
+      <c r="B12" s="2">
+        <v>3</v>
+      </c>
+      <c r="C12" s="1">
+        <v>45436</v>
+      </c>
+      <c r="D12">
+        <v>1000</v>
+      </c>
+      <c r="E12" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="13" spans="1:5" ht="16.2" x14ac:dyDescent="0.3">
+      <c r="A13" s="2" t="s">
+        <v>17</v>
+      </c>
+      <c r="B13" s="2">
+        <v>3</v>
+      </c>
+      <c r="C13" s="1">
+        <v>45072</v>
+      </c>
+      <c r="D13">
+        <v>1000</v>
+      </c>
+      <c r="E13" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="14" spans="1:5" ht="16.2" x14ac:dyDescent="0.3">
+      <c r="A14" s="2" t="s">
+        <v>18</v>
+      </c>
+      <c r="B14" s="2">
+        <v>3</v>
+      </c>
+      <c r="C14" s="1">
+        <v>45072</v>
+      </c>
+      <c r="D14">
+        <v>1000</v>
+      </c>
+      <c r="E14" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="15" spans="1:5" ht="16.2" x14ac:dyDescent="0.3">
+      <c r="A15" s="2" t="s">
+        <v>19</v>
+      </c>
+      <c r="B15" s="2">
+        <v>3</v>
+      </c>
+      <c r="C15" s="1">
+        <v>45072</v>
+      </c>
+      <c r="D15">
+        <v>1000</v>
+      </c>
+      <c r="E15" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="16" spans="1:5" ht="16.2" x14ac:dyDescent="0.3">
+      <c r="A16" s="2" t="s">
+        <v>20</v>
+      </c>
+      <c r="B16" s="2">
+        <v>3</v>
+      </c>
+      <c r="C16" s="1">
+        <v>45072</v>
+      </c>
+      <c r="D16">
+        <v>1000</v>
+      </c>
+      <c r="E16" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="17" spans="1:5" ht="16.2" x14ac:dyDescent="0.3">
+      <c r="A17" s="2" t="s">
+        <v>21</v>
+      </c>
+      <c r="B17" s="2">
+        <v>3</v>
+      </c>
+      <c r="C17" s="1">
+        <v>45072</v>
+      </c>
+      <c r="D17">
+        <v>1000</v>
+      </c>
+      <c r="E17" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="18" spans="1:5" ht="16.2" x14ac:dyDescent="0.3">
+      <c r="A18" s="2" t="s">
+        <v>22</v>
+      </c>
+      <c r="B18" s="2">
+        <v>4</v>
+      </c>
+      <c r="C18" s="1">
+        <v>45072</v>
+      </c>
+      <c r="D18">
+        <v>1000</v>
+      </c>
+      <c r="E18" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="19" spans="1:5" ht="16.2" x14ac:dyDescent="0.3">
+      <c r="A19" s="2" t="s">
+        <v>23</v>
+      </c>
+      <c r="B19" s="2">
+        <v>3</v>
+      </c>
+      <c r="C19" s="1">
+        <v>45072</v>
+      </c>
+      <c r="D19">
+        <v>1000</v>
+      </c>
+      <c r="E19" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="20" spans="1:5" ht="16.2" x14ac:dyDescent="0.3">
+      <c r="A20" s="2" t="s">
+        <v>24</v>
+      </c>
+      <c r="B20" s="2">
+        <v>3</v>
+      </c>
+      <c r="C20" s="1">
+        <v>45072</v>
+      </c>
+      <c r="D20">
+        <v>1000</v>
+      </c>
+      <c r="E20" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="21" spans="1:5" ht="16.2" x14ac:dyDescent="0.3">
+      <c r="A21" s="2" t="s">
+        <v>25</v>
+      </c>
+      <c r="B21" s="2">
+        <v>4</v>
+      </c>
+      <c r="C21" s="1">
+        <v>45072</v>
+      </c>
+      <c r="D21">
+        <v>1000</v>
+      </c>
+      <c r="E21" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="22" spans="1:5" ht="16.2" x14ac:dyDescent="0.3">
+      <c r="A22" s="2" t="s">
+        <v>26</v>
+      </c>
+      <c r="B22" s="2">
+        <v>3</v>
+      </c>
+      <c r="C22" s="1">
+        <v>45072</v>
+      </c>
+      <c r="D22">
+        <v>1000</v>
+      </c>
+      <c r="E22" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="23" spans="1:5" ht="16.2" x14ac:dyDescent="0.3">
+      <c r="A23" s="2" t="s">
+        <v>27</v>
+      </c>
+      <c r="B23" s="2">
+        <v>3</v>
+      </c>
+      <c r="C23" s="1">
+        <v>45072</v>
+      </c>
+      <c r="D23">
+        <v>1000</v>
+      </c>
+      <c r="E23" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="24" spans="1:5" ht="16.2" x14ac:dyDescent="0.3">
+      <c r="A24" s="2" t="s">
+        <v>28</v>
+      </c>
+      <c r="B24" s="2">
+        <v>4</v>
+      </c>
+      <c r="C24" s="1">
+        <v>45072</v>
+      </c>
+      <c r="D24">
+        <v>1000</v>
+      </c>
+      <c r="E24" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="25" spans="1:5" ht="16.2" x14ac:dyDescent="0.3">
+      <c r="A25" s="2" t="s">
+        <v>29</v>
+      </c>
+      <c r="B25" s="2">
+        <v>3</v>
+      </c>
+      <c r="C25" s="1">
+        <v>45072</v>
+      </c>
+      <c r="D25">
+        <v>1000</v>
+      </c>
+      <c r="E25" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="26" spans="1:5" ht="16.2" x14ac:dyDescent="0.3">
+      <c r="A26" s="2" t="s">
+        <v>30</v>
+      </c>
+      <c r="B26" s="2">
+        <v>3</v>
+      </c>
+      <c r="C26" s="1">
+        <v>45072</v>
+      </c>
+      <c r="D26">
+        <v>1000</v>
+      </c>
+      <c r="E26" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="27" spans="1:5" ht="16.2" x14ac:dyDescent="0.3">
+      <c r="A27" s="2" t="s">
+        <v>31</v>
+      </c>
+      <c r="B27" s="2">
+        <v>3</v>
+      </c>
+      <c r="C27" s="1">
+        <v>45072</v>
+      </c>
+      <c r="D27">
+        <v>1000</v>
+      </c>
+      <c r="E27" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="28" spans="1:5" ht="16.2" x14ac:dyDescent="0.3">
+      <c r="A28" s="2" t="s">
+        <v>32</v>
+      </c>
+      <c r="B28" s="2">
+        <v>4</v>
+      </c>
+      <c r="C28" s="1">
+        <v>45072</v>
+      </c>
+      <c r="D28">
+        <v>1000</v>
+      </c>
+      <c r="E28" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="29" spans="1:5" ht="16.2" x14ac:dyDescent="0.3">
+      <c r="A29" s="2" t="s">
+        <v>33</v>
+      </c>
+      <c r="B29" s="2">
+        <v>3</v>
+      </c>
+      <c r="C29" s="1">
+        <v>45072</v>
+      </c>
+      <c r="D29">
+        <v>1000</v>
+      </c>
+      <c r="E29" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="30" spans="1:5" ht="16.2" x14ac:dyDescent="0.3">
+      <c r="A30" s="2" t="s">
+        <v>34</v>
+      </c>
+      <c r="B30" s="2">
+        <v>3</v>
+      </c>
+      <c r="C30" s="1">
+        <v>45072</v>
+      </c>
+      <c r="D30">
+        <v>1000</v>
+      </c>
+      <c r="E30" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="31" spans="1:5" ht="16.2" x14ac:dyDescent="0.3">
+      <c r="A31" s="2" t="s">
+        <v>35</v>
+      </c>
+      <c r="B31" s="2">
+        <v>5</v>
+      </c>
+      <c r="C31" s="1">
+        <v>45072</v>
+      </c>
+      <c r="D31">
+        <v>1000</v>
+      </c>
+      <c r="E31" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="32" spans="1:5" ht="16.2" x14ac:dyDescent="0.3">
+      <c r="A32" s="2" t="s">
+        <v>36</v>
+      </c>
+      <c r="B32" s="4">
+        <v>3</v>
+      </c>
+      <c r="C32" s="1">
+        <v>45072</v>
+      </c>
+      <c r="D32">
+        <v>1000</v>
+      </c>
+      <c r="E32" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="33" spans="1:5" ht="16.2" x14ac:dyDescent="0.3">
+      <c r="A33" s="2" t="s">
+        <v>37</v>
+      </c>
+      <c r="B33" s="2">
+        <v>3</v>
+      </c>
+      <c r="C33" s="1">
+        <v>44707</v>
+      </c>
+      <c r="D33">
+        <v>1000</v>
+      </c>
+      <c r="E33" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="34" spans="1:5" ht="16.2" x14ac:dyDescent="0.3">
+      <c r="A34" s="2" t="s">
+        <v>38</v>
+      </c>
+      <c r="B34" s="2">
+        <v>3</v>
+      </c>
+      <c r="C34" s="1">
+        <v>44707</v>
+      </c>
+      <c r="D34">
+        <v>1000</v>
+      </c>
+      <c r="E34" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="35" spans="1:5" ht="16.2" x14ac:dyDescent="0.3">
+      <c r="A35" s="2" t="s">
+        <v>39</v>
+      </c>
+      <c r="B35" s="2">
+        <v>3</v>
+      </c>
+      <c r="C35" s="1">
+        <v>44707</v>
+      </c>
+      <c r="D35">
+        <v>1000</v>
+      </c>
+      <c r="E35" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="36" spans="1:5" ht="16.2" x14ac:dyDescent="0.3">
+      <c r="A36" s="2" t="s">
+        <v>40</v>
+      </c>
+      <c r="B36" s="2">
+        <v>3</v>
+      </c>
+      <c r="C36" s="1">
+        <v>44707</v>
+      </c>
+      <c r="D36">
+        <v>1000</v>
+      </c>
+      <c r="E36" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="37" spans="1:5" ht="16.2" x14ac:dyDescent="0.3">
+      <c r="A37" s="2" t="s">
+        <v>41</v>
+      </c>
+      <c r="B37" s="2">
+        <v>4</v>
+      </c>
+      <c r="C37" s="1">
+        <v>44707</v>
+      </c>
+      <c r="D37">
+        <v>1000</v>
+      </c>
+      <c r="E37" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="38" spans="1:5" ht="16.2" x14ac:dyDescent="0.3">
+      <c r="A38" s="2" t="s">
+        <v>42</v>
+      </c>
+      <c r="B38" s="2">
+        <v>3</v>
+      </c>
+      <c r="C38" s="1">
+        <v>44707</v>
+      </c>
+      <c r="D38">
+        <v>1000</v>
+      </c>
+      <c r="E38" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="39" spans="1:5" ht="16.2" x14ac:dyDescent="0.3">
+      <c r="A39" s="2" t="s">
+        <v>43</v>
+      </c>
+      <c r="B39" s="2">
+        <v>3</v>
+      </c>
+      <c r="C39" s="1">
+        <v>44707</v>
+      </c>
+      <c r="D39">
+        <v>1000</v>
+      </c>
+      <c r="E39" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="40" spans="1:5" ht="16.2" x14ac:dyDescent="0.3">
+      <c r="A40" s="2" t="s">
+        <v>44</v>
+      </c>
+      <c r="B40" s="2">
+        <v>4</v>
+      </c>
+      <c r="C40" s="1">
+        <v>44707</v>
+      </c>
+      <c r="D40">
+        <v>1000</v>
+      </c>
+      <c r="E40" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="41" spans="1:5" ht="16.2" x14ac:dyDescent="0.3">
+      <c r="A41" s="2" t="s">
+        <v>45</v>
+      </c>
+      <c r="B41" s="2">
+        <v>3</v>
+      </c>
+      <c r="C41" s="1">
+        <v>44707</v>
+      </c>
+      <c r="D41">
+        <v>1000</v>
+      </c>
+      <c r="E41" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="42" spans="1:5" ht="16.2" x14ac:dyDescent="0.3">
+      <c r="A42" s="2" t="s">
+        <v>46</v>
+      </c>
+      <c r="B42" s="2">
+        <v>3</v>
+      </c>
+      <c r="C42" s="1">
+        <v>44707</v>
+      </c>
+      <c r="D42">
+        <v>1000</v>
+      </c>
+      <c r="E42" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="43" spans="1:5" ht="16.2" x14ac:dyDescent="0.3">
+      <c r="A43" s="2" t="s">
+        <v>47</v>
+      </c>
+      <c r="B43" s="2">
+        <v>3</v>
+      </c>
+      <c r="C43" s="1">
+        <v>44707</v>
+      </c>
+      <c r="D43">
+        <v>1000</v>
+      </c>
+      <c r="E43" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="44" spans="1:5" ht="16.2" x14ac:dyDescent="0.3">
+      <c r="A44" s="2" t="s">
+        <v>48</v>
+      </c>
+      <c r="B44" s="2">
+        <v>3</v>
+      </c>
+      <c r="C44" s="1">
+        <v>44707</v>
+      </c>
+      <c r="D44">
+        <v>1000</v>
+      </c>
+      <c r="E44" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="45" spans="1:5" ht="16.2" x14ac:dyDescent="0.3">
+      <c r="A45" s="2" t="s">
+        <v>49</v>
+      </c>
+      <c r="B45" s="2">
+        <v>3</v>
+      </c>
+      <c r="C45" s="1">
+        <v>44707</v>
+      </c>
+      <c r="D45">
+        <v>1000</v>
+      </c>
+      <c r="E45" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="46" spans="1:5" ht="16.2" x14ac:dyDescent="0.3">
+      <c r="A46" s="2" t="s">
+        <v>50</v>
+      </c>
+      <c r="B46" s="2">
+        <v>3</v>
+      </c>
+      <c r="C46" s="1">
+        <v>44707</v>
+      </c>
+      <c r="D46">
+        <v>1000</v>
+      </c>
+      <c r="E46" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="47" spans="1:5" ht="16.2" x14ac:dyDescent="0.3">
+      <c r="A47" s="2" t="s">
+        <v>51</v>
+      </c>
+      <c r="B47" s="2">
+        <v>3</v>
+      </c>
+      <c r="C47" s="1">
+        <v>44707</v>
+      </c>
+      <c r="D47">
+        <v>1000</v>
+      </c>
+      <c r="E47" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="48" spans="1:5" ht="16.2" x14ac:dyDescent="0.3">
+      <c r="A48" s="2" t="s">
+        <v>52</v>
+      </c>
+      <c r="B48" s="4">
+        <v>3</v>
+      </c>
+      <c r="C48" s="1">
+        <v>44707</v>
+      </c>
+      <c r="D48">
+        <v>1000</v>
+      </c>
+      <c r="E48" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="49" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A49" s="1"/>
+    </row>
+    <row r="50" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A50" s="1"/>
+    </row>
+    <row r="51" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A51" s="1"/>
+    </row>
+    <row r="52" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A52" s="1"/>
+    </row>
+    <row r="53" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A53" s="1"/>
+    </row>
+    <row r="54" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A54" s="1"/>
+    </row>
+    <row r="55" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A55" s="1"/>
+    </row>
+    <row r="56" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A56" s="1"/>
+    </row>
+    <row r="57" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A57" s="1"/>
+    </row>
+    <row r="58" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A58" s="1"/>
+    </row>
+    <row r="59" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A59" s="1"/>
+    </row>
+    <row r="60" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A60" s="1"/>
+    </row>
+    <row r="61" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A61" s="1"/>
     </row>
   </sheetData>
   <phoneticPr fontId="1" type="noConversion"/>
